--- a/trunk/Arquitectura de Negocios/Descomposición Funcional/Descomposición Funcional.xlsx
+++ b/trunk/Arquitectura de Negocios/Descomposición Funcional/Descomposición Funcional.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="97">
   <si>
     <t>G1</t>
   </si>
@@ -333,7 +333,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -388,6 +388,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -416,7 +422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -484,6 +490,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -791,7 +809,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,77 +892,205 @@
       <c r="BQ1"/>
       <c r="BR1"/>
     </row>
-    <row r="2" spans="1:70" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
-      <c r="AB2"/>
-      <c r="AC2"/>
-      <c r="AD2"/>
-      <c r="AE2"/>
-      <c r="AF2"/>
-      <c r="AG2"/>
-      <c r="AH2"/>
-      <c r="AI2"/>
-      <c r="AJ2"/>
-      <c r="AK2"/>
-      <c r="AL2"/>
-      <c r="AM2"/>
-      <c r="AN2"/>
-      <c r="AO2"/>
-      <c r="AP2"/>
-      <c r="AQ2"/>
-      <c r="AR2"/>
-      <c r="AS2"/>
-      <c r="AT2"/>
-      <c r="AU2"/>
-      <c r="AV2"/>
-      <c r="AW2"/>
-      <c r="AX2"/>
-      <c r="AY2"/>
-      <c r="AZ2"/>
-      <c r="BA2"/>
-      <c r="BB2"/>
-      <c r="BC2"/>
-      <c r="BD2"/>
-      <c r="BE2"/>
-      <c r="BF2"/>
-      <c r="BG2"/>
-      <c r="BH2"/>
-      <c r="BI2"/>
-      <c r="BJ2"/>
-      <c r="BK2"/>
-      <c r="BL2"/>
-      <c r="BM2"/>
-      <c r="BN2"/>
-      <c r="BO2"/>
-      <c r="BP2"/>
-      <c r="BQ2"/>
-      <c r="BR2"/>
+    <row r="2" spans="1:70" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="T2" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="V2" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y2" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z2" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA2" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB2" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC2" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD2" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE2" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF2" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG2" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH2" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI2" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ2" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK2" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN2" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO2" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP2" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ2" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR2" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="AS2" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT2" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="AU2" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="AV2" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="AW2" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="AX2" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="AY2" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ2" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="BA2" s="29"/>
+      <c r="BB2" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="BC2" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="BD2" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="BE2" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF2" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="BG2" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="BH2" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="BI2" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="BJ2" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="BK2" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="BL2" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="BM2" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="BN2" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="BO2" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="BP2" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="BQ2" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="BR2" s="29" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="3" spans="1:70" s="24" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A3" s="21"/>
@@ -1251,10 +1397,10 @@
         <v>1</v>
       </c>
       <c r="H5" s="4"/>
-      <c r="I5" s="4">
-        <v>1</v>
-      </c>
-      <c r="J5" s="4">
+      <c r="I5" s="27">
+        <v>1</v>
+      </c>
+      <c r="J5" s="27">
         <v>1</v>
       </c>
       <c r="K5" s="4"/>
@@ -1267,7 +1413,7 @@
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
-      <c r="U5" s="4">
+      <c r="U5" s="27">
         <v>1</v>
       </c>
       <c r="V5" s="4"/>
@@ -1339,18 +1485,18 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
-      <c r="Q6" s="4">
+      <c r="Q6" s="27">
         <v>1</v>
       </c>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
-      <c r="T6" s="4">
-        <v>1</v>
-      </c>
-      <c r="U6" s="4">
-        <v>1</v>
-      </c>
-      <c r="V6" s="4">
+      <c r="T6" s="27">
+        <v>1</v>
+      </c>
+      <c r="U6" s="27">
+        <v>1</v>
+      </c>
+      <c r="V6" s="27">
         <v>1</v>
       </c>
       <c r="W6" s="4"/>
@@ -1421,20 +1567,20 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
-      <c r="Q7" s="4">
+      <c r="Q7" s="27">
         <v>1</v>
       </c>
       <c r="R7" s="4"/>
-      <c r="S7" s="4">
-        <v>1</v>
-      </c>
-      <c r="T7" s="4">
-        <v>1</v>
-      </c>
-      <c r="U7" s="4">
-        <v>1</v>
-      </c>
-      <c r="V7" s="4">
+      <c r="S7" s="27">
+        <v>1</v>
+      </c>
+      <c r="T7" s="27">
+        <v>1</v>
+      </c>
+      <c r="U7" s="27">
+        <v>1</v>
+      </c>
+      <c r="V7" s="27">
         <v>1</v>
       </c>
       <c r="W7" s="4"/>
@@ -1505,18 +1651,18 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
-      <c r="Q8" s="4">
+      <c r="Q8" s="27">
         <v>1</v>
       </c>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="4">
-        <v>1</v>
-      </c>
-      <c r="U8" s="4">
-        <v>1</v>
-      </c>
-      <c r="V8" s="4">
+      <c r="T8" s="27">
+        <v>1</v>
+      </c>
+      <c r="U8" s="27">
+        <v>1</v>
+      </c>
+      <c r="V8" s="27">
         <v>1</v>
       </c>
       <c r="W8" s="4"/>
@@ -1587,18 +1733,18 @@
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="4">
+      <c r="Q9" s="27">
         <v>1</v>
       </c>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="4">
-        <v>1</v>
-      </c>
-      <c r="U9" s="4">
-        <v>1</v>
-      </c>
-      <c r="V9" s="4">
+      <c r="T9" s="27">
+        <v>1</v>
+      </c>
+      <c r="U9" s="27">
+        <v>1</v>
+      </c>
+      <c r="V9" s="27">
         <v>1</v>
       </c>
       <c r="W9" s="4"/>
@@ -1645,7 +1791,7 @@
       <c r="BL9" s="4"/>
       <c r="BM9" s="4"/>
       <c r="BN9" s="4"/>
-      <c r="BO9" s="4">
+      <c r="BO9" s="27">
         <v>1</v>
       </c>
       <c r="BP9" s="4"/>
@@ -1671,18 +1817,18 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="4">
+      <c r="Q10" s="27">
         <v>1</v>
       </c>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="4">
-        <v>1</v>
-      </c>
-      <c r="U10" s="4">
-        <v>1</v>
-      </c>
-      <c r="V10" s="4">
+      <c r="T10" s="27">
+        <v>1</v>
+      </c>
+      <c r="U10" s="27">
+        <v>1</v>
+      </c>
+      <c r="V10" s="27">
         <v>1</v>
       </c>
       <c r="W10" s="4"/>
@@ -1786,10 +1932,10 @@
       <c r="AU11" s="7"/>
       <c r="AV11" s="7"/>
       <c r="AW11" s="7"/>
-      <c r="AX11" s="7">
-        <v>1</v>
-      </c>
-      <c r="AY11" s="7">
+      <c r="AX11" s="27">
+        <v>1</v>
+      </c>
+      <c r="AY11" s="27">
         <v>1</v>
       </c>
       <c r="AZ11" s="7"/>
@@ -1805,10 +1951,10 @@
       <c r="BJ11" s="7"/>
       <c r="BK11" s="7"/>
       <c r="BL11" s="7"/>
-      <c r="BM11" s="7">
-        <v>1</v>
-      </c>
-      <c r="BN11" s="7">
+      <c r="BM11" s="27">
+        <v>1</v>
+      </c>
+      <c r="BN11" s="27">
         <v>1</v>
       </c>
       <c r="BO11" s="7"/>
@@ -1860,26 +2006,26 @@
       <c r="AM12" s="7"/>
       <c r="AN12" s="7"/>
       <c r="AO12" s="7"/>
-      <c r="AP12" s="7">
+      <c r="AP12" s="27">
         <v>1</v>
       </c>
       <c r="AQ12" s="7"/>
       <c r="AR12" s="7"/>
-      <c r="AS12" s="7">
+      <c r="AS12" s="27">
         <v>1</v>
       </c>
       <c r="AT12" s="7"/>
       <c r="AU12" s="7"/>
-      <c r="AV12" s="7">
-        <v>1</v>
-      </c>
-      <c r="AW12" s="7">
-        <v>1</v>
-      </c>
-      <c r="AX12" s="7">
-        <v>1</v>
-      </c>
-      <c r="AY12" s="7">
+      <c r="AV12" s="27">
+        <v>1</v>
+      </c>
+      <c r="AW12" s="27">
+        <v>1</v>
+      </c>
+      <c r="AX12" s="27">
+        <v>1</v>
+      </c>
+      <c r="AY12" s="27">
         <v>1</v>
       </c>
       <c r="AZ12" s="7"/>
@@ -1894,7 +2040,7 @@
       <c r="BI12" s="7"/>
       <c r="BJ12" s="7"/>
       <c r="BK12" s="7"/>
-      <c r="BL12" s="7">
+      <c r="BL12" s="27">
         <v>1</v>
       </c>
       <c r="BM12" s="7"/>
@@ -1948,26 +2094,26 @@
       <c r="AM13" s="7"/>
       <c r="AN13" s="7"/>
       <c r="AO13" s="7"/>
-      <c r="AP13" s="7">
+      <c r="AP13" s="27">
         <v>1</v>
       </c>
       <c r="AQ13" s="7"/>
       <c r="AR13" s="7"/>
-      <c r="AS13" s="7">
+      <c r="AS13" s="27">
         <v>1</v>
       </c>
       <c r="AT13" s="7"/>
       <c r="AU13" s="7"/>
-      <c r="AV13" s="7">
-        <v>1</v>
-      </c>
-      <c r="AW13" s="7">
-        <v>1</v>
-      </c>
-      <c r="AX13" s="7">
-        <v>1</v>
-      </c>
-      <c r="AY13" s="7">
+      <c r="AV13" s="27">
+        <v>1</v>
+      </c>
+      <c r="AW13" s="27">
+        <v>1</v>
+      </c>
+      <c r="AX13" s="27">
+        <v>1</v>
+      </c>
+      <c r="AY13" s="27">
         <v>1</v>
       </c>
       <c r="AZ13" s="7"/>
@@ -2032,7 +2178,7 @@
       <c r="AK14" s="7"/>
       <c r="AL14" s="7"/>
       <c r="AM14" s="7"/>
-      <c r="AN14" s="7">
+      <c r="AN14" s="27">
         <v>1</v>
       </c>
       <c r="AO14" s="7"/>
@@ -2040,7 +2186,7 @@
       <c r="AQ14" s="7"/>
       <c r="AR14" s="7"/>
       <c r="AS14" s="7"/>
-      <c r="AT14" s="7">
+      <c r="AT14" s="27">
         <v>1</v>
       </c>
       <c r="AU14" s="7"/>
@@ -2109,31 +2255,31 @@
       <c r="AJ15" s="7"/>
       <c r="AK15" s="7"/>
       <c r="AL15" s="7"/>
-      <c r="AM15" s="7">
-        <v>1</v>
-      </c>
-      <c r="AN15" s="7">
-        <v>1</v>
-      </c>
-      <c r="AO15" s="7">
-        <v>1</v>
-      </c>
-      <c r="AP15" s="7">
-        <v>1</v>
-      </c>
-      <c r="AQ15" s="7">
-        <v>1</v>
-      </c>
-      <c r="AR15" s="7">
-        <v>1</v>
-      </c>
-      <c r="AS15" s="7">
-        <v>1</v>
-      </c>
-      <c r="AT15" s="7">
-        <v>1</v>
-      </c>
-      <c r="AU15" s="7">
+      <c r="AM15" s="27">
+        <v>1</v>
+      </c>
+      <c r="AN15" s="27">
+        <v>1</v>
+      </c>
+      <c r="AO15" s="27">
+        <v>1</v>
+      </c>
+      <c r="AP15" s="27">
+        <v>1</v>
+      </c>
+      <c r="AQ15" s="27">
+        <v>1</v>
+      </c>
+      <c r="AR15" s="27">
+        <v>1</v>
+      </c>
+      <c r="AS15" s="27">
+        <v>1</v>
+      </c>
+      <c r="AT15" s="27">
+        <v>1</v>
+      </c>
+      <c r="AU15" s="27">
         <v>1</v>
       </c>
       <c r="AV15" s="7"/>
@@ -2187,14 +2333,14 @@
       <c r="V16" s="9"/>
       <c r="W16" s="9"/>
       <c r="X16" s="9"/>
-      <c r="Y16" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="9">
+      <c r="Y16" s="27">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="27">
         <v>1</v>
       </c>
       <c r="AA16" s="9"/>
-      <c r="AB16" s="9">
+      <c r="AB16" s="27">
         <v>1</v>
       </c>
       <c r="AC16" s="9"/>
@@ -2220,7 +2366,7 @@
       <c r="AW16" s="9"/>
       <c r="AX16" s="9"/>
       <c r="AY16" s="9"/>
-      <c r="AZ16" s="9">
+      <c r="AZ16" s="27">
         <v>1</v>
       </c>
       <c r="BA16" s="9"/>
@@ -2301,7 +2447,7 @@
       <c r="BB17" s="9"/>
       <c r="BC17" s="9"/>
       <c r="BD17" s="9"/>
-      <c r="BE17" s="9">
+      <c r="BE17" s="27">
         <v>1</v>
       </c>
       <c r="BF17" s="9"/>
@@ -2374,13 +2520,13 @@
       <c r="AY18" s="9"/>
       <c r="AZ18" s="9"/>
       <c r="BA18" s="9"/>
-      <c r="BB18" s="9">
-        <v>1</v>
-      </c>
-      <c r="BC18" s="9">
-        <v>1</v>
-      </c>
-      <c r="BD18" s="9">
+      <c r="BB18" s="27">
+        <v>1</v>
+      </c>
+      <c r="BC18" s="27">
+        <v>1</v>
+      </c>
+      <c r="BD18" s="27">
         <v>1</v>
       </c>
       <c r="BE18" s="9"/>
@@ -2458,13 +2604,13 @@
       <c r="BC19" s="9"/>
       <c r="BD19" s="9"/>
       <c r="BE19" s="9"/>
-      <c r="BF19" s="9">
-        <v>1</v>
-      </c>
-      <c r="BG19" s="9">
-        <v>1</v>
-      </c>
-      <c r="BH19" s="9">
+      <c r="BF19" s="27">
+        <v>1</v>
+      </c>
+      <c r="BG19" s="27">
+        <v>1</v>
+      </c>
+      <c r="BH19" s="27">
         <v>1</v>
       </c>
       <c r="BI19" s="9"/>
@@ -2541,7 +2687,7 @@
       <c r="BF20" s="9"/>
       <c r="BG20" s="9"/>
       <c r="BH20" s="9"/>
-      <c r="BI20" s="9">
+      <c r="BI20" s="27">
         <v>1</v>
       </c>
       <c r="BJ20" s="9"/>
@@ -2602,7 +2748,7 @@
       <c r="AQ21" s="11"/>
       <c r="AR21" s="11"/>
       <c r="AS21" s="11"/>
-      <c r="AT21" s="11">
+      <c r="AT21" s="27">
         <v>1</v>
       </c>
       <c r="AU21" s="11"/>
@@ -2700,13 +2846,13 @@
       <c r="BM22" s="11"/>
       <c r="BN22" s="11"/>
       <c r="BO22" s="11"/>
-      <c r="BP22" s="11">
-        <v>1</v>
-      </c>
-      <c r="BQ22" s="11">
-        <v>1</v>
-      </c>
-      <c r="BR22" s="11">
+      <c r="BP22" s="27">
+        <v>1</v>
+      </c>
+      <c r="BQ22" s="27">
+        <v>1</v>
+      </c>
+      <c r="BR22" s="27">
         <v>1</v>
       </c>
     </row>
@@ -2754,17 +2900,17 @@
       <c r="AM23" s="11"/>
       <c r="AN23" s="11"/>
       <c r="AO23" s="11"/>
-      <c r="AP23" s="11">
+      <c r="AP23" s="27">
         <v>1</v>
       </c>
       <c r="AQ23" s="11"/>
       <c r="AR23" s="11"/>
-      <c r="AS23" s="11">
+      <c r="AS23" s="27">
         <v>1</v>
       </c>
       <c r="AT23" s="11"/>
       <c r="AU23" s="11"/>
-      <c r="AV23" s="11">
+      <c r="AV23" s="27">
         <v>1</v>
       </c>
       <c r="AW23" s="11"/>
@@ -2819,23 +2965,23 @@
       <c r="X24" s="13"/>
       <c r="Y24" s="13"/>
       <c r="Z24" s="13"/>
-      <c r="AA24" s="13">
-        <v>1</v>
-      </c>
-      <c r="AB24" s="13"/>
-      <c r="AC24" s="13">
-        <v>1</v>
-      </c>
-      <c r="AD24" s="13">
-        <v>1</v>
-      </c>
-      <c r="AE24" s="13">
-        <v>1</v>
-      </c>
-      <c r="AF24" s="13">
-        <v>1</v>
-      </c>
-      <c r="AG24" s="13">
+      <c r="AA24" s="13"/>
+      <c r="AB24" s="27">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="27">
+        <v>1</v>
+      </c>
+      <c r="AD24" s="27">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="27">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="27">
+        <v>1</v>
+      </c>
+      <c r="AG24" s="27">
         <v>1</v>
       </c>
       <c r="AH24" s="13"/>
@@ -2912,10 +3058,10 @@
       <c r="AE25" s="13"/>
       <c r="AF25" s="13"/>
       <c r="AG25" s="13"/>
-      <c r="AH25" s="13">
-        <v>1</v>
-      </c>
-      <c r="AI25" s="13">
+      <c r="AH25" s="27">
+        <v>1</v>
+      </c>
+      <c r="AI25" s="27">
         <v>1</v>
       </c>
       <c r="AJ25" s="13"/>
@@ -2980,16 +3126,16 @@
       <c r="U26" s="13"/>
       <c r="V26" s="13"/>
       <c r="W26" s="13"/>
-      <c r="X26" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y26" s="13">
-        <v>1</v>
-      </c>
-      <c r="Z26" s="13">
-        <v>1</v>
-      </c>
-      <c r="AA26" s="13">
+      <c r="X26" s="27">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="27">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="27">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="27">
         <v>1</v>
       </c>
       <c r="AB26" s="13"/>
@@ -3074,10 +3220,10 @@
       <c r="AG27" s="13"/>
       <c r="AH27" s="13"/>
       <c r="AI27" s="13"/>
-      <c r="AJ27" s="13">
-        <v>1</v>
-      </c>
-      <c r="AK27" s="13">
+      <c r="AJ27" s="27">
+        <v>1</v>
+      </c>
+      <c r="AK27" s="27">
         <v>1</v>
       </c>
       <c r="AL27" s="13"/>
@@ -3127,26 +3273,26 @@
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
       <c r="J28" s="15"/>
-      <c r="K28" s="15">
-        <v>1</v>
-      </c>
-      <c r="L28" s="15">
-        <v>1</v>
-      </c>
-      <c r="M28" s="15">
-        <v>1</v>
-      </c>
-      <c r="N28" s="15">
-        <v>1</v>
-      </c>
-      <c r="O28" s="15">
+      <c r="K28" s="27">
+        <v>1</v>
+      </c>
+      <c r="L28" s="27">
+        <v>1</v>
+      </c>
+      <c r="M28" s="27">
+        <v>1</v>
+      </c>
+      <c r="N28" s="27">
+        <v>1</v>
+      </c>
+      <c r="O28" s="27">
         <v>1</v>
       </c>
       <c r="P28" s="15"/>
-      <c r="Q28" s="15">
-        <v>1</v>
-      </c>
-      <c r="R28" s="15">
+      <c r="Q28" s="27">
+        <v>1</v>
+      </c>
+      <c r="R28" s="27">
         <v>1</v>
       </c>
       <c r="S28" s="15"/>
@@ -3307,7 +3453,7 @@
       <c r="P30" s="17"/>
       <c r="Q30" s="17"/>
       <c r="R30" s="17"/>
-      <c r="S30" s="17">
+      <c r="S30" s="27">
         <v>1</v>
       </c>
       <c r="T30" s="17"/>
@@ -3352,10 +3498,10 @@
       <c r="BG30" s="17"/>
       <c r="BH30" s="17"/>
       <c r="BI30" s="17"/>
-      <c r="BJ30" s="17">
-        <v>1</v>
-      </c>
-      <c r="BK30" s="17">
+      <c r="BJ30" s="27">
+        <v>1</v>
+      </c>
+      <c r="BK30" s="27">
         <v>1</v>
       </c>
       <c r="BL30" s="17"/>
@@ -3469,11 +3615,11 @@
       </c>
       <c r="AA31" s="5">
         <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AB31" s="5">
+        <f t="shared" si="0"/>
         <v>2</v>
-      </c>
-      <c r="AB31" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
       </c>
       <c r="AC31" s="5">
         <f t="shared" si="0"/>

--- a/trunk/Arquitectura de Negocios/Descomposición Funcional/Descomposición Funcional.xlsx
+++ b/trunk/Arquitectura de Negocios/Descomposición Funcional/Descomposición Funcional.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="390">
   <si>
     <t>Código</t>
   </si>
@@ -1094,6 +1094,102 @@
   </si>
   <si>
     <t>Este caso de uso permitirá al Jefe del Departamento, visualizar y revisar la rendición de gastos de viaje elaborada por el empleado. En caso sea necesario, permitirá devolverla o, en caso contrario, enviarla al Administrador, para su evaluación final.</t>
+  </si>
+  <si>
+    <t>Evaluar Rendición de Gastos de Viaje</t>
+  </si>
+  <si>
+    <t>El presente caso de uso permitirá al Administrador visualizar la rendición de gastos de viaje elaborada por el empleado. Asimismo, permitirá solicitar una subsanación, en caso sea necesario, al empleado.</t>
+  </si>
+  <si>
+    <t>Elaborar Declaración Jurada de Gastos</t>
+  </si>
+  <si>
+    <t>Este caso de uso permitirá al empleado del Departamento elaborar la declaración jurada, en base a los gastos que no posean comprobantes de pago, que puedan sustentar su realización.</t>
+  </si>
+  <si>
+    <t>Buscar Perfiles Ocupacionales</t>
+  </si>
+  <si>
+    <t>El presente caso de uso permitirá al Jefe del Departamento buscar los perfiles ocupacionales, según criterios establecidos; para así determinar, si es necesaria la elaboración de un nuevo perfil o no.</t>
+  </si>
+  <si>
+    <t>Evaluar Perfil Ocupacional</t>
+  </si>
+  <si>
+    <t>Gestionar Perfil Ocupacional</t>
+  </si>
+  <si>
+    <t>En caso el perfil ocupacional no exista, este caso de uso permitirá al Jefe del Departamento elaborar y modificar un  perfil ocupacional, indicando las competencias y demás requisitos necesarios para un puesto determinado.</t>
+  </si>
+  <si>
+    <t>El presente caso de uso permitirá al Director General visualizar, aprobar o rechazar el perfil ocupacional elaborado por el Jefe del Departamento.</t>
+  </si>
+  <si>
+    <t>Gestionar Publicación de Reclutamiento</t>
+  </si>
+  <si>
+    <t>El presente caso de uso permitirá al Administrador elaborar, modificar, eliminar y distribuir una publicación para reclutar postulantes, entre los diferentes medios de difusión, como Universidades, la Web y otras instituciones relacionadas a Fe y Alegría Perú.</t>
+  </si>
+  <si>
+    <t>Administrar Curriculum Vitae's</t>
+  </si>
+  <si>
+    <t>El presente caso de uso permitirá al Administrador almacenar, visualizar y elminar todos los CV's recibidos de los postulantes interesados en el puesto.</t>
+  </si>
+  <si>
+    <t>Evaluar CV's</t>
+  </si>
+  <si>
+    <t>Este caso de uso permitirá al Administrador visualizar, filtrar, rechazar o aprobar CV's de los postulantes que considere aptos o no para el puesto.</t>
+  </si>
+  <si>
+    <t>Evaluar Postulante</t>
+  </si>
+  <si>
+    <t>El presente caso de uso permitirá al Jefe del Departamento y Director General evaluar a un postulante, ya sea en aspectos técnicos o personales.</t>
+  </si>
+  <si>
+    <t>Gestionar Evaluaciones de Personal</t>
+  </si>
+  <si>
+    <t>El presente caso de uso permitirá al Administrador elaborar, modificar, eliminar y distribuir las evaluaciones técnicas y personales a todos los empleados de la Oficina Central de Fe y Alegría Perú.</t>
+  </si>
+  <si>
+    <t>Desarrollar Evaluaciones</t>
+  </si>
+  <si>
+    <t>El presente caso de uso permitirá al empleado desarrollar las evaluaciones enviadas por el Administrador.</t>
+  </si>
+  <si>
+    <t>Corregir Evaluaciones de Personal</t>
+  </si>
+  <si>
+    <t>Este caso de uso permitirá al Jefe del Departamento y Director General visualizar, corregir y obtener los resultados de las evaluaciones de los empleados.</t>
+  </si>
+  <si>
+    <t>Gestionar Capacitación</t>
+  </si>
+  <si>
+    <t>El presente caso de uso permitirá al Jefe del Departamento y Administrador crear, modificar, eliminar, aprobar y rechazar una capacitación, interna o externa, para los empleados.</t>
+  </si>
+  <si>
+    <t>Elaborar Carta de Renuncia</t>
+  </si>
+  <si>
+    <t>El presente caso de uso permitirá a cualquier empleado elaborar y distribuir su carta de renuncia a las personas necesarias.</t>
+  </si>
+  <si>
+    <t>Elaborar Carta de Exoneración de Tiempo</t>
+  </si>
+  <si>
+    <t>El presente caso de uso permitirá a cualquier empleado elaborar y distribuir una carta para solicitar su retiro antes de los 30 días reglamentarios.</t>
+  </si>
+  <si>
+    <t>Gestionar Contrato</t>
+  </si>
+  <si>
+    <t>Este caso de uso permitirá al Administrador elaborar, actualizar y almacenar los contratos de los empleados de la Oficina Central de Fe y Alegría Perú.</t>
   </si>
 </sst>
 </file>
@@ -1508,8 +1604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="D117" sqref="D117"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E133" sqref="E133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2775,120 +2871,183 @@
         <v>357</v>
       </c>
     </row>
-    <row r="117" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C117" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="D117" s="3"/>
-      <c r="E117" s="9"/>
-    </row>
-    <row r="118" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D117" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="118" spans="3:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C118" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="D118" s="3"/>
-      <c r="E118" s="9"/>
-    </row>
-    <row r="119" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D118" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="119" spans="3:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C119" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="D119" s="3"/>
-      <c r="E119" s="9"/>
-    </row>
-    <row r="120" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D119" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="120" spans="3:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C120" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="D120" s="3"/>
-      <c r="E120" s="9"/>
-    </row>
-    <row r="121" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D120" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="E120" s="9" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="121" spans="3:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C121" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="D121" s="3"/>
-      <c r="E121" s="9"/>
-    </row>
-    <row r="122" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D121" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="122" spans="3:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C122" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="D122" s="3"/>
-      <c r="E122" s="9"/>
-    </row>
-    <row r="123" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D122" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="123" spans="3:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C123" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="D123" s="3"/>
-      <c r="E123" s="9"/>
-    </row>
-    <row r="124" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D123" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="124" spans="3:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C124" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="D124" s="3"/>
-      <c r="E124" s="9"/>
-    </row>
-    <row r="125" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D124" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="E124" s="9" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="125" spans="3:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C125" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="D125" s="3"/>
-      <c r="E125" s="9"/>
-    </row>
-    <row r="126" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D125" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="E125" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="126" spans="3:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C126" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="D126" s="3"/>
-      <c r="E126" s="9"/>
+      <c r="D126" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="E126" s="9" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="127" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C127" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="D127" s="3"/>
-      <c r="E127" s="9"/>
-    </row>
-    <row r="128" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D127" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="128" spans="3:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C128" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="D128" s="3"/>
-      <c r="E128" s="9"/>
-    </row>
-    <row r="129" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D128" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="E128" s="9" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="129" spans="3:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C129" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="D129" s="3"/>
-      <c r="E129" s="9"/>
-    </row>
-    <row r="130" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D129" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="E129" s="9" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="130" spans="3:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C130" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D130" s="3"/>
-      <c r="E130" s="9"/>
-    </row>
-    <row r="131" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D130" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="E130" s="9" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="131" spans="3:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C131" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="D131" s="3"/>
-      <c r="E131" s="9"/>
-    </row>
-    <row r="132" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D131" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E131" s="9" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="132" spans="3:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C132" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="D132" s="3"/>
-      <c r="E132" s="9"/>
+      <c r="D132" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E132" s="9" t="s">
+        <v>389</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="C3:E132"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/trunk/Arquitectura de Negocios/Descomposición Funcional/Descomposición Funcional.xlsx
+++ b/trunk/Arquitectura de Negocios/Descomposición Funcional/Descomposición Funcional.xlsx
@@ -781,9 +781,6 @@
     <t>G67a, G67b, G67c, G67d, G67e, G67f, G67g, G67h, G67i, G67j</t>
   </si>
   <si>
-    <t>Gestión de Notificaciones</t>
-  </si>
-  <si>
     <t>Este caso de uso permitirá emitir notificaciones hacia los diferentes empleados de la Oficina Centrla de Fe y Alegría Perú; como por ejemplo, necesidad de elaborar informes, solicitud de estados financieros, informar a los empleados para firmar planillas, informar a los empleados sobre capacitaciones o seguimiento realizado, y resultados de evaluaciones realizadas, entre otros.</t>
   </si>
   <si>
@@ -1190,6 +1187,9 @@
   </si>
   <si>
     <t>Este caso de uso permitirá al Administrador elaborar, actualizar y almacenar los contratos de los empleados de la Oficina Central de Fe y Alegría Perú.</t>
+  </si>
+  <si>
+    <t>Gestionar Notificaciones</t>
   </si>
 </sst>
 </file>
@@ -1604,8 +1604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E133" sqref="E133"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2340,7 +2340,7 @@
         <v>249</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="69" spans="3:5" ht="60" x14ac:dyDescent="0.25">
@@ -2359,10 +2359,10 @@
         <v>252</v>
       </c>
       <c r="D70" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="E70" s="9" t="s">
         <v>253</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="71" spans="3:5" ht="45" x14ac:dyDescent="0.25">
@@ -2370,10 +2370,10 @@
         <v>160</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="72" spans="3:5" ht="30" x14ac:dyDescent="0.25">
@@ -2381,10 +2381,10 @@
         <v>163</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="73" spans="3:5" ht="30" x14ac:dyDescent="0.25">
@@ -2392,10 +2392,10 @@
         <v>199</v>
       </c>
       <c r="D73" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E73" s="9" t="s">
         <v>259</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="74" spans="3:5" ht="45" x14ac:dyDescent="0.25">
@@ -2403,10 +2403,10 @@
         <v>200</v>
       </c>
       <c r="D74" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E74" s="9" t="s">
         <v>261</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="75" spans="3:5" x14ac:dyDescent="0.25">
@@ -2414,10 +2414,10 @@
         <v>201</v>
       </c>
       <c r="D75" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E75" s="9" t="s">
         <v>263</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="76" spans="3:5" ht="30" x14ac:dyDescent="0.25">
@@ -2425,10 +2425,10 @@
         <v>202</v>
       </c>
       <c r="D76" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E76" s="11" t="s">
         <v>265</v>
-      </c>
-      <c r="E76" s="11" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="77" spans="3:5" ht="45" x14ac:dyDescent="0.25">
@@ -2436,10 +2436,10 @@
         <v>203</v>
       </c>
       <c r="D77" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E77" s="9" t="s">
         <v>267</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="78" spans="3:5" ht="30" x14ac:dyDescent="0.25">
@@ -2447,32 +2447,32 @@
         <v>204</v>
       </c>
       <c r="D78" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E78" s="9" t="s">
         <v>269</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="79" spans="3:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C79" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E79" s="9" t="s">
         <v>272</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="80" spans="3:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C80" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E80" s="9" t="s">
         <v>275</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="81" spans="3:5" ht="45" x14ac:dyDescent="0.25">
@@ -2480,10 +2480,10 @@
         <v>205</v>
       </c>
       <c r="D81" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E81" s="9" t="s">
         <v>277</v>
-      </c>
-      <c r="E81" s="9" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="82" spans="3:5" ht="30" x14ac:dyDescent="0.25">
@@ -2491,10 +2491,10 @@
         <v>206</v>
       </c>
       <c r="D82" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E82" s="10" t="s">
         <v>281</v>
-      </c>
-      <c r="E82" s="10" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="83" spans="3:5" ht="30" x14ac:dyDescent="0.25">
@@ -2502,10 +2502,10 @@
         <v>207</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="84" spans="3:5" ht="45" x14ac:dyDescent="0.25">
@@ -2513,32 +2513,32 @@
         <v>208</v>
       </c>
       <c r="D84" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E84" s="9" t="s">
         <v>284</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="85" spans="3:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C85" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="D85" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="E85" s="9" t="s">
         <v>287</v>
-      </c>
-      <c r="E85" s="9" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="86" spans="3:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C86" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="D86" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="E86" s="9" t="s">
         <v>290</v>
-      </c>
-      <c r="E86" s="9" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="87" spans="3:5" ht="30" x14ac:dyDescent="0.25">
@@ -2546,10 +2546,10 @@
         <v>209</v>
       </c>
       <c r="D87" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E87" s="9" t="s">
         <v>292</v>
-      </c>
-      <c r="E87" s="9" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="88" spans="3:5" x14ac:dyDescent="0.25">
@@ -2557,10 +2557,10 @@
         <v>210</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="89" spans="3:5" ht="45" x14ac:dyDescent="0.25">
@@ -2568,10 +2568,10 @@
         <v>211</v>
       </c>
       <c r="D89" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E89" s="9" t="s">
         <v>295</v>
-      </c>
-      <c r="E89" s="9" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="90" spans="3:5" ht="30" x14ac:dyDescent="0.25">
@@ -2579,32 +2579,32 @@
         <v>212</v>
       </c>
       <c r="D90" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="E90" s="9" t="s">
         <v>298</v>
-      </c>
-      <c r="E90" s="9" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="91" spans="3:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C91" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="E91" s="9" t="s">
         <v>301</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="E91" s="9" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="92" spans="3:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C92" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D92" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E92" s="9" t="s">
         <v>303</v>
-      </c>
-      <c r="E92" s="9" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="93" spans="3:5" x14ac:dyDescent="0.25">
@@ -2612,10 +2612,10 @@
         <v>213</v>
       </c>
       <c r="D93" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E93" s="9" t="s">
         <v>306</v>
-      </c>
-      <c r="E93" s="9" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="94" spans="3:5" ht="30" x14ac:dyDescent="0.25">
@@ -2623,10 +2623,10 @@
         <v>214</v>
       </c>
       <c r="D94" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E94" s="9" t="s">
         <v>308</v>
-      </c>
-      <c r="E94" s="9" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="95" spans="3:5" ht="30" x14ac:dyDescent="0.25">
@@ -2634,32 +2634,32 @@
         <v>215</v>
       </c>
       <c r="D95" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E95" s="9" t="s">
         <v>310</v>
-      </c>
-      <c r="E95" s="9" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="96" spans="3:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C96" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="D96" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="E96" s="9" t="s">
         <v>313</v>
-      </c>
-      <c r="E96" s="9" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="97" spans="3:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C97" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="D97" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="E97" s="9" t="s">
         <v>316</v>
-      </c>
-      <c r="E97" s="9" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="98" spans="3:5" ht="45" x14ac:dyDescent="0.25">
@@ -2667,10 +2667,10 @@
         <v>216</v>
       </c>
       <c r="D98" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E98" s="9" t="s">
         <v>318</v>
-      </c>
-      <c r="E98" s="9" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="99" spans="3:5" ht="30" x14ac:dyDescent="0.25">
@@ -2678,10 +2678,10 @@
         <v>217</v>
       </c>
       <c r="D99" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E99" s="9" t="s">
         <v>320</v>
-      </c>
-      <c r="E99" s="9" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="100" spans="3:5" ht="30" x14ac:dyDescent="0.25">
@@ -2689,10 +2689,10 @@
         <v>218</v>
       </c>
       <c r="D100" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E100" s="9" t="s">
         <v>322</v>
-      </c>
-      <c r="E100" s="9" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="101" spans="3:5" ht="30" x14ac:dyDescent="0.25">
@@ -2700,10 +2700,10 @@
         <v>219</v>
       </c>
       <c r="D101" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E101" s="9" t="s">
         <v>324</v>
-      </c>
-      <c r="E101" s="9" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="102" spans="3:5" ht="30" x14ac:dyDescent="0.25">
@@ -2711,10 +2711,10 @@
         <v>220</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="103" spans="3:5" ht="30" x14ac:dyDescent="0.25">
@@ -2722,10 +2722,10 @@
         <v>221</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="104" spans="3:5" ht="30" x14ac:dyDescent="0.25">
@@ -2733,10 +2733,10 @@
         <v>222</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="105" spans="3:5" ht="30" x14ac:dyDescent="0.25">
@@ -2744,21 +2744,21 @@
         <v>223</v>
       </c>
       <c r="D105" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E105" s="9" t="s">
         <v>329</v>
-      </c>
-      <c r="E105" s="9" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="106" spans="3:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C106" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E106" s="9" t="s">
         <v>335</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="E106" s="9" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="107" spans="3:5" ht="30" x14ac:dyDescent="0.25">
@@ -2766,10 +2766,10 @@
         <v>224</v>
       </c>
       <c r="D107" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E107" s="9" t="s">
         <v>337</v>
-      </c>
-      <c r="E107" s="9" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="108" spans="3:5" ht="30" x14ac:dyDescent="0.25">
@@ -2777,10 +2777,10 @@
         <v>225</v>
       </c>
       <c r="D108" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E108" s="9" t="s">
         <v>339</v>
-      </c>
-      <c r="E108" s="9" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="109" spans="3:5" ht="30" x14ac:dyDescent="0.25">
@@ -2788,10 +2788,10 @@
         <v>226</v>
       </c>
       <c r="D109" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E109" s="9" t="s">
         <v>341</v>
-      </c>
-      <c r="E109" s="9" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="110" spans="3:5" ht="30" x14ac:dyDescent="0.25">
@@ -2799,10 +2799,10 @@
         <v>227</v>
       </c>
       <c r="D110" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="E110" s="9" t="s">
         <v>343</v>
-      </c>
-      <c r="E110" s="9" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="111" spans="3:5" ht="30" x14ac:dyDescent="0.25">
@@ -2810,10 +2810,10 @@
         <v>228</v>
       </c>
       <c r="D111" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="E111" s="9" t="s">
         <v>345</v>
-      </c>
-      <c r="E111" s="9" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="112" spans="3:5" ht="30" x14ac:dyDescent="0.25">
@@ -2821,21 +2821,21 @@
         <v>229</v>
       </c>
       <c r="D112" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E112" s="9" t="s">
         <v>347</v>
-      </c>
-      <c r="E112" s="9" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="113" spans="3:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C113" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D113" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E113" s="9" t="s">
         <v>349</v>
-      </c>
-      <c r="E113" s="9" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="114" spans="3:5" ht="30" x14ac:dyDescent="0.25">
@@ -2843,10 +2843,10 @@
         <v>230</v>
       </c>
       <c r="D114" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="E114" s="9" t="s">
         <v>352</v>
-      </c>
-      <c r="E114" s="9" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="115" spans="3:5" ht="45" x14ac:dyDescent="0.25">
@@ -2854,10 +2854,10 @@
         <v>231</v>
       </c>
       <c r="D115" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="E115" s="9" t="s">
         <v>354</v>
-      </c>
-      <c r="E115" s="9" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="116" spans="3:5" ht="45" x14ac:dyDescent="0.25">
@@ -2865,10 +2865,10 @@
         <v>232</v>
       </c>
       <c r="D116" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E116" s="9" t="s">
         <v>356</v>
-      </c>
-      <c r="E116" s="9" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="117" spans="3:5" ht="30" x14ac:dyDescent="0.25">
@@ -2876,10 +2876,10 @@
         <v>233</v>
       </c>
       <c r="D117" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E117" s="9" t="s">
         <v>358</v>
-      </c>
-      <c r="E117" s="9" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="118" spans="3:5" ht="30" x14ac:dyDescent="0.25">
@@ -2887,10 +2887,10 @@
         <v>234</v>
       </c>
       <c r="D118" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E118" s="9" t="s">
         <v>360</v>
-      </c>
-      <c r="E118" s="9" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="119" spans="3:5" ht="30" x14ac:dyDescent="0.25">
@@ -2898,10 +2898,10 @@
         <v>235</v>
       </c>
       <c r="D119" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E119" s="9" t="s">
         <v>362</v>
-      </c>
-      <c r="E119" s="9" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="120" spans="3:5" ht="30" x14ac:dyDescent="0.25">
@@ -2909,10 +2909,10 @@
         <v>236</v>
       </c>
       <c r="D120" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="E120" s="9" t="s">
         <v>365</v>
-      </c>
-      <c r="E120" s="9" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="121" spans="3:5" ht="30" x14ac:dyDescent="0.25">
@@ -2920,10 +2920,10 @@
         <v>237</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="122" spans="3:5" ht="45" x14ac:dyDescent="0.25">
@@ -2931,10 +2931,10 @@
         <v>238</v>
       </c>
       <c r="D122" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E122" s="9" t="s">
         <v>368</v>
-      </c>
-      <c r="E122" s="9" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="123" spans="3:5" ht="30" x14ac:dyDescent="0.25">
@@ -2942,10 +2942,10 @@
         <v>239</v>
       </c>
       <c r="D123" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="E123" s="9" t="s">
         <v>370</v>
-      </c>
-      <c r="E123" s="9" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="124" spans="3:5" ht="30" x14ac:dyDescent="0.25">
@@ -2953,10 +2953,10 @@
         <v>240</v>
       </c>
       <c r="D124" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E124" s="9" t="s">
         <v>372</v>
-      </c>
-      <c r="E124" s="9" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="125" spans="3:5" ht="30" x14ac:dyDescent="0.25">
@@ -2964,10 +2964,10 @@
         <v>241</v>
       </c>
       <c r="D125" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="E125" s="9" t="s">
         <v>374</v>
-      </c>
-      <c r="E125" s="9" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="126" spans="3:5" ht="30" x14ac:dyDescent="0.25">
@@ -2975,10 +2975,10 @@
         <v>242</v>
       </c>
       <c r="D126" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="E126" s="9" t="s">
         <v>376</v>
-      </c>
-      <c r="E126" s="9" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="127" spans="3:5" x14ac:dyDescent="0.25">
@@ -2986,10 +2986,10 @@
         <v>243</v>
       </c>
       <c r="D127" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E127" s="9" t="s">
         <v>378</v>
-      </c>
-      <c r="E127" s="9" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="128" spans="3:5" ht="30" x14ac:dyDescent="0.25">
@@ -2997,10 +2997,10 @@
         <v>244</v>
       </c>
       <c r="D128" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="E128" s="9" t="s">
         <v>380</v>
-      </c>
-      <c r="E128" s="9" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="129" spans="3:5" ht="30" x14ac:dyDescent="0.25">
@@ -3008,10 +3008,10 @@
         <v>245</v>
       </c>
       <c r="D129" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="E129" s="9" t="s">
         <v>382</v>
-      </c>
-      <c r="E129" s="9" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="130" spans="3:5" ht="30" x14ac:dyDescent="0.25">
@@ -3019,10 +3019,10 @@
         <v>246</v>
       </c>
       <c r="D130" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="E130" s="9" t="s">
         <v>384</v>
-      </c>
-      <c r="E130" s="9" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="131" spans="3:5" ht="30" x14ac:dyDescent="0.25">
@@ -3030,10 +3030,10 @@
         <v>247</v>
       </c>
       <c r="D131" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="E131" s="9" t="s">
         <v>386</v>
-      </c>
-      <c r="E131" s="9" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="132" spans="3:5" ht="30" x14ac:dyDescent="0.25">
@@ -3041,10 +3041,10 @@
         <v>248</v>
       </c>
       <c r="D132" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="E132" s="9" t="s">
         <v>388</v>
-      </c>
-      <c r="E132" s="9" t="s">
-        <v>389</v>
       </c>
     </row>
   </sheetData>
